--- a/input/emissions-inventories/Australia/NH3_Australia_UNFCCC_and_NPI_2018Update.xlsx
+++ b/input/emissions-inventories/Australia/NH3_Australia_UNFCCC_and_NPI_2018Update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mott406\OneDrive - PNNL\Documents\CEDS\CEDSTest\CEDS\input\emissions-inventories\Australia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Desktop\CREA Github\CEDS\input\emissions-inventories\Australia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="109_{CF3DD04E-0D30-40CF-AB2F-356C413BC35F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{813A63A8-4BFA-4B8E-B47A-B9446722E806}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501D17A3-FE83-4CD3-9DAA-315202BCB54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="2400" windowWidth="14145" windowHeight="10710" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="2016-2017" sheetId="20" r:id="rId20"/>
     <sheet name="2017-2018" sheetId="21" r:id="rId21"/>
     <sheet name="2018-2019" sheetId="22" r:id="rId22"/>
+    <sheet name="2019-2020" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="70">
   <si>
     <t>Source</t>
   </si>
@@ -1104,53 +1105,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1168,9 +1169,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>43901602.799999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>18550953.939389501</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>8224702</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>8200225.7300000004</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>2798640.51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>2212001.0780000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>2191590.3960000002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>1078117.0415039</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>604477.91</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>557105.76</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>532849</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>360636.03290519997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>239360.15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>219303</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>160787</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>99218</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1492,7 +1493,7 @@
         <v>80789.370065917901</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1503,7 +1504,7 @@
         <v>51988.19921875</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>31629</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>25625</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>21470</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>17435.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -1561,7 +1562,7 @@
         <v>14764</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1572,7 +1573,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>1454.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>1236.48</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>68.099998474121094</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>34.533000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -1713,7 +1714,7 @@
         <v>2.2050800000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1737,9 +1738,9 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>31860720.34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>18345936.827599999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>8737140.4979999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>8644041.3205399998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>2989038.5150000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>2869087.3280000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>2451553.0827000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>630242.24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>590967</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>498449.36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>451394.41499999998</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>210493</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>185543.327332916</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>168517</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>158452.93171</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>57519.81</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>56617</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>47572</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>40403.1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>37601</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>35446.660000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>23345</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>14150.7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>12863</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>10633.9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2163,7 +2164,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>2674.99</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>1721.6579999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>1399.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>712.2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>110.8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>39.931276400000002</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>8.4930000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2292,9 +2293,9 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>34309693.299000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>17971747.395656001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>9826264.9385000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>7820172.0060000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>2856462.0660999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>2804364.0929999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>2238775.14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2434,7 +2435,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2470,7 +2471,7 @@
         <v>721254.79</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>582644.71</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>512385</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>463014.40000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>242926</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>179813.794965143</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -2554,7 +2555,7 @@
         <v>158025</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>130288.2735</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2596,7 +2597,7 @@
         <v>114109.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>64954.83</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>58842</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>56741</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>45911.99</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2657,7 +2658,7 @@
         <v>25590</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2668,7 +2669,7 @@
         <v>24099.3838</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>20890</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>12693</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>5121.3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>3948</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>2386.83</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>567.79999999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>279.30601999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>243.8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>32.49</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>16.917120000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2842,7 +2843,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -2866,9 +2867,9 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>37087663.990000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>17442541.118500002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>9687916.2988300007</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>7933455.5343000004</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>2942848.12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>2716533.1278300001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>1354079.78718</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3044,7 +3045,7 @@
         <v>1016669</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>549764.4841</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>523300.39500000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>392806.35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>136488.4669</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v>121774</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>114137.78053963699</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -3156,7 +3157,7 @@
         <v>101811</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>57287.686000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>55763.11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>52239.31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>50342.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>19789</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>18386.2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -3253,7 +3254,7 @@
         <v>15093.56668</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>12244</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3275,7 +3276,7 @@
         <v>10120</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>7670.3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>2989.5529999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -3325,7 +3326,7 @@
         <v>2266.69</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -3347,7 +3348,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>259.56392</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>240.745</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>75.81</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -3440,9 +3441,9 @@
       <selection activeCell="A43" sqref="A1:A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>36733366.443000004</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>17154132.828549799</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>10602577.259</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>7704771.1160000004</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>2694134.7230000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>2113730.4203461902</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>1275872.8899999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>695179</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -3632,7 +3633,7 @@
         <v>517991.8247</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>386689.26059999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>327416.22494879999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>249946.49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>188133.43296000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -3699,7 +3700,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>128384.08</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>106083.382713492</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>103798.36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -3761,7 +3762,7 @@
         <v>88756.09</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>54370.42</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>51125.7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>10710</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>7106.2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3816,7 +3817,7 @@
         <v>6525</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -3827,7 +3828,7 @@
         <v>5992.3295600000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3849,7 +3850,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -3874,7 +3875,7 @@
         <v>2190.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>1503.52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -3899,7 +3900,7 @@
         <v>380.6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>350.13486999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>223.77699999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -3935,7 +3936,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>106.06</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>81.22</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -3974,7 +3975,7 @@
         <v>61.68</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -3985,7 +3986,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -4009,9 +4010,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4028,7 +4029,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -4042,7 +4043,7 @@
         <v>32935208.006900001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -4053,7 +4054,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>19057614.283877902</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -4081,7 +4082,7 @@
         <v>10077850.328299999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>8455351.7310000006</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4109,7 +4110,7 @@
         <v>2788718.5229000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -4120,7 +4121,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -4134,7 +4135,7 @@
         <v>1652470.1528100001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>1628772.8965400001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -4173,7 +4174,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4187,7 +4188,7 @@
         <v>680674.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>423726.80669354799</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>338596</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -4229,7 +4230,7 @@
         <v>260732.72200000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4243,7 +4244,7 @@
         <v>200412.10389999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>126681.425481</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>114800</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>104890.54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4310,7 +4311,7 @@
         <v>92665.74</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -4321,7 +4322,7 @@
         <v>85289.550296432295</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>68260</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>54029.73</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>35049.199999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -4371,7 +4372,7 @@
         <v>20129.8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -4393,7 +4394,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4407,7 +4408,7 @@
         <v>2605.6999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -4421,7 +4422,7 @@
         <v>2032.64</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -4432,7 +4433,7 @@
         <v>1698.9392832000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -4443,7 +4444,7 @@
         <v>729.76</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -4460,7 +4461,7 @@
         <v>606.67999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>431.31324000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -4482,7 +4483,7 @@
         <v>317.2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -4493,7 +4494,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -4504,7 +4505,7 @@
         <v>93.97</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>39.049999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -4529,7 +4530,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -4553,9 +4554,9 @@
       <selection sqref="A1:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4572,7 +4573,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>36164911.925999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -4597,7 +4598,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -4614,7 +4615,7 @@
         <v>16292702.925574601</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>8426642.4061999992</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>7259945.2934999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>2677031.5310999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -4664,7 +4665,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>1730158.54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -4698,7 +4699,7 @@
         <v>1540318.877053</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -4709,7 +4710,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>745211.3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -4748,7 +4749,7 @@
         <v>720087.92</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4762,7 +4763,7 @@
         <v>418533.65138</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4776,7 +4777,7 @@
         <v>318350.40000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4790,7 +4791,7 @@
         <v>166378.73000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -4804,7 +4805,7 @@
         <v>158665.78520348799</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4826,7 +4827,7 @@
         <v>85295.748341599799</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -4843,7 +4844,7 @@
         <v>68776.66</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4860,7 +4861,7 @@
         <v>67121.61</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>59590</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -4885,7 +4886,7 @@
         <v>35736.65</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>34812.491950000003</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>25899.8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -4918,7 +4919,7 @@
         <v>17261.28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4929,7 +4930,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -4940,7 +4941,7 @@
         <v>7963.33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>2197.37</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>1031.3599999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -4987,7 +4988,7 @@
         <v>805.82447999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>514.09</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>498.786</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -5029,7 +5030,7 @@
         <v>353.16120000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>175.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -5051,7 +5052,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>91.65</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -5076,7 +5077,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -5100,9 +5101,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>38749657.761</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -5144,7 +5145,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -5161,7 +5162,7 @@
         <v>18179307.195703</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -5172,7 +5173,7 @@
         <v>8370367.477</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>6561454.1380000003</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -5194,7 +5195,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -5211,7 +5212,7 @@
         <v>2062925.81</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5225,7 +5226,7 @@
         <v>2032364.594</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5242,7 +5243,7 @@
         <v>1705822.85399</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -5264,7 +5265,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>1023300.42</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5292,7 +5293,7 @@
         <v>715124.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -5306,7 +5307,7 @@
         <v>500569.28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -5320,7 +5321,7 @@
         <v>329570</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>203917.742220799</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5354,7 +5355,7 @@
         <v>179075.28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5376,7 +5377,7 @@
         <v>118000.100886281</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>111431.594</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -5407,7 +5408,7 @@
         <v>67965.33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>49608.38248</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -5429,7 +5430,7 @@
         <v>47860.83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -5440,7 +5441,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -5451,7 +5452,7 @@
         <v>22678.359499999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -5462,7 +5463,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -5473,7 +5474,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -5487,7 +5488,7 @@
         <v>2831.87</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -5498,7 +5499,7 @@
         <v>1098.17</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -5509,7 +5510,7 @@
         <v>825.64</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -5523,7 +5524,7 @@
         <v>470.84</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -5534,7 +5535,7 @@
         <v>292.60000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -5548,7 +5549,7 @@
         <v>209.25924975999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>190.39699999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>5.0890000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -5616,9 +5617,9 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5635,7 +5636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -5649,7 +5650,7 @@
         <v>33104632.877999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -5677,7 +5678,7 @@
         <v>19950494.472366299</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -5688,7 +5689,7 @@
         <v>5861423.1222000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -5699,7 +5700,7 @@
         <v>5361215.9759999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -5713,7 +5714,7 @@
         <v>2207350.6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -5724,7 +5725,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -5741,7 +5742,7 @@
         <v>2089076.7157630599</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>1922011.69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -5769,7 +5770,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -5780,7 +5781,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5794,7 +5795,7 @@
         <v>857685.75430000003</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5808,7 +5809,7 @@
         <v>710768.1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -5822,7 +5823,7 @@
         <v>505366.41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -5836,7 +5837,7 @@
         <v>354068.39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5850,7 +5851,7 @@
         <v>314934.03450000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>213447.87400000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>193601.83482786699</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -5895,7 +5896,7 @@
         <v>143696.66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -5917,7 +5918,7 @@
         <v>65197.953959999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>64355.134720000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5939,7 +5940,7 @@
         <v>39548</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -5953,7 +5954,7 @@
         <v>29486.98</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -5967,7 +5968,7 @@
         <v>20673</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -5978,7 +5979,7 @@
         <v>8030</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -5989,7 +5990,7 @@
         <v>5706.2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -6000,7 +6001,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -6014,7 +6015,7 @@
         <v>2895.5949999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -6025,7 +6026,7 @@
         <v>1282.0930000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -6039,7 +6040,7 @@
         <v>412.08499999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -6050,7 +6051,7 @@
         <v>240.9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -6061,7 +6062,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -6072,7 +6073,7 @@
         <v>17.193372507999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -6083,7 +6084,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -6094,7 +6095,7 @@
         <v>2.2050800000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -6118,9 +6119,9 @@
       <selection sqref="A1:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6137,7 +6138,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -6148,7 +6149,7 @@
         <v>35965859.04033</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -6159,7 +6160,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>17839930.770587001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -6187,7 +6188,7 @@
         <v>5738274.1339999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -6198,7 +6199,7 @@
         <v>5722884.4500000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -6212,7 +6213,7 @@
         <v>2202932.5937999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>1999009.9613385</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6257,7 +6258,7 @@
         <v>1795982.59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -6279,7 +6280,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6293,7 +6294,7 @@
         <v>942650.96188800002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6307,7 +6308,7 @@
         <v>710611.1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -6324,7 +6325,7 @@
         <v>489420.52399999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>419743.72</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -6349,7 +6350,7 @@
         <v>293838.24365084397</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -6360,7 +6361,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -6374,7 +6375,7 @@
         <v>263630.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -6391,7 +6392,7 @@
         <v>146618.848</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -6405,7 +6406,7 @@
         <v>136671.84</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6416,7 +6417,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -6427,7 +6428,7 @@
         <v>64418.227780000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -6438,7 +6439,7 @@
         <v>53246.300999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>50806.03</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -6463,7 +6464,7 @@
         <v>38173</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -6477,7 +6478,7 @@
         <v>30675.8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -6499,7 +6500,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -6510,7 +6511,7 @@
         <v>4028</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -6524,7 +6525,7 @@
         <v>3316.73</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -6535,7 +6536,7 @@
         <v>1369.6022399999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -6546,7 +6547,7 @@
         <v>284.7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -6563,7 +6564,7 @@
         <v>242.75503359999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -6574,7 +6575,7 @@
         <v>20.62</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -6585,7 +6586,7 @@
         <v>20.484999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -6599,7 +6600,7 @@
         <v>17.539000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -6610,7 +6611,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -6621,7 +6622,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -6645,12 +6646,12 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6667,7 +6668,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -6678,7 +6679,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -6689,7 +6690,7 @@
         <v>3483944</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6700,7 +6701,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -6711,7 +6712,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -6722,7 +6723,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -6733,7 +6734,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -6747,7 +6748,7 @@
         <v>44528</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6758,7 +6759,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6769,7 +6770,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6780,7 +6781,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -6791,39 +6792,39 @@
         <v>2.2050800000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="E77" s="1"/>
     </row>
@@ -6840,9 +6841,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6859,7 +6860,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -6870,7 +6871,7 @@
         <v>39788717.993417896</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -6881,7 +6882,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -6898,7 +6899,7 @@
         <v>19371429.487673301</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -6909,7 +6910,7 @@
         <v>6090671.9450689396</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>5324151.1160000004</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -6937,7 +6938,7 @@
         <v>4843584.4498317502</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -6954,7 +6955,7 @@
         <v>2259180.0699999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -6965,7 +6966,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -6976,7 +6977,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -6987,7 +6988,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7001,7 +7002,7 @@
         <v>1128473.41851</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -7015,7 +7016,7 @@
         <v>619905.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -7029,7 +7030,7 @@
         <v>399290.625</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>364018.53001998097</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -7051,7 +7052,7 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -7065,7 +7066,7 @@
         <v>232789</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -7079,7 +7080,7 @@
         <v>189976.1808</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -7093,7 +7094,7 @@
         <v>140909.41279999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -7104,7 +7105,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -7118,7 +7119,7 @@
         <v>134351.44010000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -7129,7 +7130,7 @@
         <v>70286.645180000007</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7140,7 +7141,7 @@
         <v>67209.124960000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v>65785.557100000005</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -7171,7 +7172,7 @@
         <v>63896.38</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -7182,7 +7183,7 @@
         <v>60567.83</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -7193,7 +7194,7 @@
         <v>25542.2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -7204,7 +7205,7 @@
         <v>24845</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -7215,7 +7216,7 @@
         <v>6735.0749999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -7240,7 +7241,7 @@
         <v>3380.2629999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -7251,7 +7252,7 @@
         <v>1380.33728</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -7262,7 +7263,7 @@
         <v>497.63629259999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -7273,7 +7274,7 @@
         <v>289.60000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -7284,7 +7285,7 @@
         <v>34.859000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -7295,7 +7296,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -7309,7 +7310,7 @@
         <v>19.13</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -7320,7 +7321,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -7331,7 +7332,7 @@
         <v>2.2050800000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -7342,7 +7343,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -7366,9 +7367,9 @@
       <selection sqref="A1:E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7385,7 +7386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -7399,7 +7400,7 @@
         <v>38836265.186402902</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -7410,7 +7411,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -7427,7 +7428,7 @@
         <v>20469227.634849999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -7438,7 +7439,7 @@
         <v>6029342.0420000004</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -7449,7 +7450,7 @@
         <v>5953070.6339641698</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7466,7 +7467,7 @@
         <v>2317426.25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -7477,7 +7478,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -7494,7 +7495,7 @@
         <v>2072456.2014649999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7508,7 +7509,7 @@
         <v>1301413.077</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -7519,7 +7520,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -7530,7 +7531,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -7544,7 +7545,7 @@
         <v>664907.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -7561,7 +7562,7 @@
         <v>419866.89777899999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -7572,7 +7573,7 @@
         <v>403092.35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -7589,7 +7590,7 @@
         <v>359579.24400000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -7603,7 +7604,7 @@
         <v>260473.8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -7614,7 +7615,7 @@
         <v>234399.64233315401</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -7631,7 +7632,7 @@
         <v>185797.87719999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -7645,7 +7646,7 @@
         <v>171298.1029</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -7659,7 +7660,7 @@
         <v>136798.3296</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -7670,7 +7671,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -7681,7 +7682,7 @@
         <v>64879.935109999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -7692,7 +7693,7 @@
         <v>49707.387000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>39718</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -7717,7 +7718,7 @@
         <v>30806.94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -7731,7 +7732,7 @@
         <v>27774.400000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -7745,7 +7746,7 @@
         <v>10872.210346</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -7756,7 +7757,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -7767,7 +7768,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -7778,7 +7779,7 @@
         <v>3716.83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -7789,7 +7790,7 @@
         <v>1094.6600000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>1039.0857599999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -7811,7 +7812,7 @@
         <v>265.94946913899997</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>227.2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -7833,7 +7834,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -7844,7 +7845,7 @@
         <v>24.297000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -7855,7 +7856,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -7875,17 +7876,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E96A327-1DAC-46DE-8D6C-C7EF39237A66}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="67.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7902,7 +7903,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -7917,7 +7918,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -7929,7 +7930,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -7947,7 +7948,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -7959,7 +7960,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -7971,7 +7972,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7989,7 +7990,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -8001,7 +8002,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -8028,7 +8029,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -8040,7 +8041,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -8058,7 +8059,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -8073,7 +8074,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -8091,7 +8092,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>386773.1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -8119,7 +8120,7 @@
         <v>329370.35752528103</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -8133,7 +8134,7 @@
         <v>245509.98</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v>208583.546062807</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -8161,7 +8162,7 @@
         <v>165861.08420000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -8172,7 +8173,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -8186,7 +8187,7 @@
         <v>118865.45044</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -8197,7 +8198,7 @@
         <v>67090.099669999996</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -8211,7 +8212,7 @@
         <v>61132.11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -8222,7 +8223,7 @@
         <v>59678.788</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -8233,7 +8234,7 @@
         <v>51632.805380504004</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -8244,7 +8245,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -8261,7 +8262,7 @@
         <v>34679.650999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -8275,7 +8276,7 @@
         <v>25698.43</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -8286,7 +8287,7 @@
         <v>15116.05</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -8297,7 +8298,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -8308,7 +8309,7 @@
         <v>3716.18</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -8319,7 +8320,7 @@
         <v>1164.5899999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -8330,7 +8331,7 @@
         <v>956.28427999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -8341,7 +8342,7 @@
         <v>191.1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -8352,7 +8353,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -8363,7 +8364,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -8374,10 +8375,394 @@
         <v>2.2050800000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E39" s="1">
         <f>SUM(E1:E37)</f>
         <v>125392059.7769271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9590E0B6-436B-40E4-A0E4-EE6034E56B43}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44146212.413664803</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44146212.413664803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30087746.286416698</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30087746.286416698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>6143001.0700000003</v>
+      </c>
+      <c r="E4">
+        <v>6143001.0700000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>5939821.8147891797</v>
+      </c>
+      <c r="E5">
+        <v>5939821.8147891797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2115913.40253451</v>
+      </c>
+      <c r="E6">
+        <v>2115913.40253451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1717766.11</v>
+      </c>
+      <c r="E7">
+        <v>1717766.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1494442.6198</v>
+      </c>
+      <c r="E8">
+        <v>1494442.6198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>1290229.84442674</v>
+      </c>
+      <c r="E9">
+        <v>1290229.84442674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10">
+        <v>1265079.8825544801</v>
+      </c>
+      <c r="E10">
+        <v>1265079.8825544801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1230251.5072999999</v>
+      </c>
+      <c r="E11">
+        <v>1230251.5072999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>691861.50759399997</v>
+      </c>
+      <c r="E12">
+        <v>691861.50759399997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>560262.66299999994</v>
+      </c>
+      <c r="E13">
+        <v>560262.66299999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>458633.1</v>
+      </c>
+      <c r="E14">
+        <v>458633.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>195131.133</v>
+      </c>
+      <c r="E15">
+        <v>195131.133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>141421.68</v>
+      </c>
+      <c r="E16">
+        <v>141421.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>134783.00071073501</v>
+      </c>
+      <c r="E17">
+        <v>134783.00071073501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>69750.334000000003</v>
+      </c>
+      <c r="E18">
+        <v>69750.334000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>64567.216</v>
+      </c>
+      <c r="E19">
+        <v>64567.216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>58056.359199999999</v>
+      </c>
+      <c r="E20">
+        <v>58056.359199999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>57181.703999999998</v>
+      </c>
+      <c r="E21">
+        <v>57181.703999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>45653</v>
+      </c>
+      <c r="E22">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4468.3843092421303</v>
+      </c>
+      <c r="E23">
+        <v>4468.3843092421303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>4395.6967999999997</v>
+      </c>
+      <c r="E24">
+        <v>4395.6967999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25">
+        <v>2883</v>
+      </c>
+      <c r="E25">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>2159.06</v>
+      </c>
+      <c r="E26">
+        <v>2159.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>866.51952000000006</v>
+      </c>
+      <c r="E27">
+        <v>866.51952000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>297.99</v>
+      </c>
+      <c r="E28">
+        <v>297.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>202.5</v>
+      </c>
+      <c r="E29">
+        <v>202.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>28.86</v>
+      </c>
+      <c r="E30">
+        <v>28.86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>2.6634000000000002</v>
+      </c>
+      <c r="E32">
+        <v>2.6634000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2.2050800000000002</v>
+      </c>
+      <c r="E33">
+        <v>2.2050800000000002</v>
       </c>
     </row>
   </sheetData>
@@ -8393,9 +8778,9 @@
       <selection sqref="A1:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8412,7 +8797,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -8423,7 +8808,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -8434,7 +8819,7 @@
         <v>12233908</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -8451,7 +8836,7 @@
         <v>5153050</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8462,7 +8847,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -8473,7 +8858,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -8484,7 +8869,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -8498,7 +8883,7 @@
         <v>1002451</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -8509,7 +8894,7 @@
         <v>465081.07</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -8526,7 +8911,7 @@
         <v>170950.501116317</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -8537,7 +8922,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -8554,7 +8939,7 @@
         <v>127041.9877536</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -8568,7 +8953,7 @@
         <v>106160</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -8582,7 +8967,7 @@
         <v>105779.9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -8596,7 +8981,7 @@
         <v>16710.61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -8607,7 +8992,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -8618,7 +9003,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -8632,7 +9017,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -8643,7 +9028,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -8654,7 +9039,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -8665,7 +9050,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -8676,7 +9061,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -8687,7 +9072,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -8698,7 +9083,7 @@
         <v>45.05</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -8709,7 +9094,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -8720,7 +9105,7 @@
         <v>2.2050800000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -8740,13 +9125,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8763,7 +9148,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -8774,7 +9159,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -8791,7 +9176,7 @@
         <v>16090316.9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -8802,7 +9187,7 @@
         <v>14085815</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8813,7 +9198,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -8824,7 +9209,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -8835,7 +9220,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -8849,7 +9234,7 @@
         <v>615503.4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -8866,7 +9251,7 @@
         <v>596596.65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -8877,7 +9262,7 @@
         <v>177949.9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -8894,7 +9279,7 @@
         <v>168190</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -8911,7 +9296,7 @@
         <v>137668.49873913699</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -8922,7 +9307,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -8936,7 +9321,7 @@
         <v>99039.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -8950,7 +9335,7 @@
         <v>17828</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -8961,7 +9346,7 @@
         <v>4555</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -8972,7 +9357,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -8986,7 +9371,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -8997,7 +9382,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -9008,7 +9393,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -9019,7 +9404,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -9030,7 +9415,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -9041,7 +9426,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -9052,7 +9437,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -9063,7 +9448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -9074,7 +9459,7 @@
         <v>13.421889999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -9085,7 +9470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -9096,7 +9481,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -9107,7 +9492,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -9118,7 +9503,7 @@
         <v>2.2050800000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -9129,7 +9514,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -9153,9 +9538,9 @@
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9172,7 +9557,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -9183,7 +9568,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -9194,7 +9579,7 @@
         <v>29870761.289999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -9211,7 +9596,7 @@
         <v>17818868.6655</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -9228,7 +9613,7 @@
         <v>4454932.3946860004</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -9245,7 +9630,7 @@
         <v>2864113.1359999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -9256,7 +9641,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -9267,7 +9652,7 @@
         <v>1567144</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -9278,7 +9663,7 @@
         <v>1529986.89</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -9289,7 +9674,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -9300,7 +9685,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -9314,7 +9699,7 @@
         <v>1014684.61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -9328,7 +9713,7 @@
         <v>953800.11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -9342,7 +9727,7 @@
         <v>359010.25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -9359,7 +9744,7 @@
         <v>276426.87</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -9373,7 +9758,7 @@
         <v>240734.53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -9387,7 +9772,7 @@
         <v>223630.11645046901</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -9401,7 +9786,7 @@
         <v>166541.02768614999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -9415,7 +9800,7 @@
         <v>139378</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -9426,7 +9811,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -9437,7 +9822,7 @@
         <v>109480</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -9448,7 +9833,7 @@
         <v>22725</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -9462,7 +9847,7 @@
         <v>19056.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -9473,7 +9858,7 @@
         <v>17963.2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -9487,7 +9872,7 @@
         <v>16967.75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -9501,7 +9886,7 @@
         <v>12155</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -9512,7 +9897,7 @@
         <v>6839</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -9523,7 +9908,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -9534,7 +9919,7 @@
         <v>5114.1000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -9545,7 +9930,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -9556,7 +9941,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -9567,7 +9952,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -9578,7 +9963,7 @@
         <v>2000.67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -9589,7 +9974,7 @@
         <v>1877.58</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -9600,7 +9985,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -9614,7 +9999,7 @@
         <v>524.79999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -9628,7 +10013,7 @@
         <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -9639,7 +10024,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -9650,7 +10035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -9661,7 +10046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -9672,7 +10057,7 @@
         <v>13.8909</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -9683,7 +10068,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -9694,7 +10079,7 @@
         <v>2.2050800000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -9705,7 +10090,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E45" s="1">
         <f>SUM(E1:E44)</f>
         <v>96607430.330655053</v>
@@ -9724,9 +10109,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9743,7 +10128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -9754,7 +10139,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -9765,7 +10150,7 @@
         <v>28129174.039999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -9782,7 +10167,7 @@
         <v>19308064.986453801</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -9793,7 +10178,7 @@
         <v>4289121.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -9804,7 +10189,7 @@
         <v>4183403.88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -9821,7 +10206,7 @@
         <v>2943785.9179938901</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -9838,7 +10223,7 @@
         <v>2458869.4700000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -9849,7 +10234,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -9866,7 +10251,7 @@
         <v>1330462.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -9877,7 +10262,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -9888,7 +10273,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -9902,7 +10287,7 @@
         <v>1121572</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9916,7 +10301,7 @@
         <v>826480</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -9930,7 +10315,7 @@
         <v>547239.30000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -9944,7 +10329,7 @@
         <v>246046</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -9958,7 +10343,7 @@
         <v>214457.82565007001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -9975,7 +10360,7 @@
         <v>195544.16363689199</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -9986,7 +10371,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -10000,7 +10385,7 @@
         <v>119562.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -10011,7 +10396,7 @@
         <v>100310</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -10025,7 +10410,7 @@
         <v>100300.01</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -10036,7 +10421,7 @@
         <v>40122.43</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -10053,7 +10438,7 @@
         <v>31588.83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -10064,7 +10449,7 @@
         <v>27685</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -10075,7 +10460,7 @@
         <v>22816</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -10089,7 +10474,7 @@
         <v>22276.9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -10100,7 +10485,7 @@
         <v>16892</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -10114,7 +10499,7 @@
         <v>13008</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -10125,7 +10510,7 @@
         <v>10876</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -10139,7 +10524,7 @@
         <v>6131.18</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -10150,7 +10535,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -10161,7 +10546,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -10172,7 +10557,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -10183,7 +10568,7 @@
         <v>2549.6999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -10194,7 +10579,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -10205,7 +10590,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -10216,7 +10601,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -10227,7 +10612,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -10238,7 +10623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -10249,7 +10634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -10260,7 +10645,7 @@
         <v>7.2451696395873997</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -10271,7 +10656,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -10282,7 +10667,7 @@
         <v>2.2050800000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -10306,9 +10691,9 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10325,7 +10710,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -10339,7 +10724,7 @@
         <v>40392668</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -10350,7 +10735,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -10367,7 +10752,7 @@
         <v>19339369.985428799</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -10381,7 +10766,7 @@
         <v>7307755.2000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -10392,7 +10777,7 @@
         <v>5057912.4800000004</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -10409,7 +10794,7 @@
         <v>2927930.17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -10426,7 +10811,7 @@
         <v>2801921.1845625001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -10443,7 +10828,7 @@
         <v>2705955.0500009102</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -10460,7 +10845,7 @@
         <v>2423333.69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -10471,7 +10856,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -10482,7 +10867,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -10493,7 +10878,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -10507,7 +10892,7 @@
         <v>690004.9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -10521,7 +10906,7 @@
         <v>683129</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -10535,7 +10920,7 @@
         <v>565608.30000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -10552,7 +10937,7 @@
         <v>281844.57872219803</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -10566,7 +10951,7 @@
         <v>267735.00019531202</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -10577,7 +10962,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -10588,7 +10973,7 @@
         <v>91951.249993896403</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -10602,7 +10987,7 @@
         <v>89800</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -10613,7 +10998,7 @@
         <v>25070</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -10627,7 +11012,7 @@
         <v>22558.2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -10644,7 +11029,7 @@
         <v>20185.159881591699</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -10658,7 +11043,7 @@
         <v>16108.97</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -10669,7 +11054,7 @@
         <v>15820</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -10683,7 +11068,7 @@
         <v>13893</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -10694,7 +11079,7 @@
         <v>11265</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -10708,7 +11093,7 @@
         <v>6180.4108886718705</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -10722,7 +11107,7 @@
         <v>5314.56</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -10733,7 +11118,7 @@
         <v>5023.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -10744,7 +11129,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -10755,7 +11140,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -10766,7 +11151,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -10777,7 +11162,7 @@
         <v>997.50499999988801</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -10788,7 +11173,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -10799,7 +11184,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -10810,7 +11195,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -10821,7 +11206,7 @@
         <v>13.242000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -10832,7 +11217,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -10843,7 +11228,7 @@
         <v>2.2050800000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -10854,7 +11239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -10865,7 +11250,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -10889,9 +11274,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10908,7 +11293,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -10919,7 +11304,7 @@
         <v>46014784.899999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -10930,7 +11315,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -10947,7 +11332,7 @@
         <v>18354043.703402899</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -10961,7 +11346,7 @@
         <v>8495968</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -10972,7 +11357,7 @@
         <v>5907887.2999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -10989,7 +11374,7 @@
         <v>3559571.4160000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -11006,7 +11391,7 @@
         <v>2717265.3930000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -11023,7 +11408,7 @@
         <v>2603183.9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -11034,7 +11419,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -11051,7 +11436,7 @@
         <v>2036806.78000732</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -11062,7 +11447,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -11073,7 +11458,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -11087,7 +11472,7 @@
         <v>829918.83</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -11101,7 +11486,7 @@
         <v>634953</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -11115,7 +11500,7 @@
         <v>617554</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -11129,7 +11514,7 @@
         <v>268474</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -11143,7 +11528,7 @@
         <v>254275.00009765601</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -11160,7 +11545,7 @@
         <v>191954.69825225801</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -11171,7 +11556,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -11185,7 +11570,7 @@
         <v>114247</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -11196,7 +11581,7 @@
         <v>82445.52734375</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -11207,7 +11592,7 @@
         <v>32549</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -11224,7 +11609,7 @@
         <v>27388.509582519499</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -11235,7 +11620,7 @@
         <v>22380</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -11249,7 +11634,7 @@
         <v>20363.400000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -11260,7 +11645,7 @@
         <v>14832</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -11274,7 +11659,7 @@
         <v>12464.73</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -11285,7 +11670,7 @@
         <v>12375</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -11296,7 +11681,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -11310,7 +11695,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -11321,7 +11706,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -11332,7 +11717,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -11343,7 +11728,7 @@
         <v>815.00010199999997</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -11354,7 +11739,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -11365,7 +11750,7 @@
         <v>73.94</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -11376,7 +11761,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -11387,7 +11772,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -11398,7 +11783,7 @@
         <v>2.2050800000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -11422,12 +11807,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11444,7 +11829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -11461,7 +11846,7 @@
         <v>44073902.100000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -11472,7 +11857,7 @@
         <v>30087746.286416698</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -11489,7 +11874,7 @@
         <v>20712472.4577883</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -11506,7 +11891,7 @@
         <v>7369353.5999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -11517,7 +11902,7 @@
         <v>6399619.2999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -11534,7 +11919,7 @@
         <v>3053935.7702499898</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -11551,7 +11936,7 @@
         <v>3006787.19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -11568,7 +11953,7 @@
         <v>2380147.23999923</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -11579,7 +11964,7 @@
         <v>2115913.40253451</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -11596,7 +11981,7 @@
         <v>1426421.58999877</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -11607,7 +11992,7 @@
         <v>1290229.84442674</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -11618,7 +12003,7 @@
         <v>1265079.8825544801</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -11632,7 +12017,7 @@
         <v>625262.4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -11646,7 +12031,7 @@
         <v>602956.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -11660,7 +12045,7 @@
         <v>568717</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -11674,7 +12059,7 @@
         <v>230928.7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -11691,7 +12076,7 @@
         <v>200192.82984924299</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -11708,7 +12093,7 @@
         <v>184139.28966064099</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -11722,7 +12107,7 @@
         <v>177034</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -11739,7 +12124,7 @@
         <v>135052</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -11750,7 +12135,7 @@
         <v>134783.00071073501</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -11761,7 +12146,7 @@
         <v>79674.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -11772,7 +12157,7 @@
         <v>37277</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -11783,7 +12168,7 @@
         <v>30213</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -11794,7 +12179,7 @@
         <v>20125</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -11808,7 +12193,7 @@
         <v>18846.789990234302</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -11819,7 +12204,7 @@
         <v>15408</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -11830,7 +12215,7 @@
         <v>4468.3843092421303</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -11841,7 +12226,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -11855,7 +12240,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -11866,7 +12251,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -11880,7 +12265,7 @@
         <v>1322.11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -11891,7 +12276,7 @@
         <v>713.099999904632</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -11902,7 +12287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -11913,7 +12298,7 @@
         <v>29.6295</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -11927,7 +12312,7 @@
         <v>23.9799995422363</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -11938,7 +12323,7 @@
         <v>2.6634000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -11949,7 +12334,7 @@
         <v>2.2050800000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
